--- a/wipropack.xlsx
+++ b/wipropack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDACC375-19CC-4F81-899F-7E0FE211EDA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7FADB4-22A0-4C76-A33A-4604891A0661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I9" sqref="I9:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +717,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -728,7 +731,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -742,7 +745,7 @@
         <v>43</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -756,7 +759,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
